--- a/trend_results/Rivers/KahuterawaatJohnstonsRata_214bbeed9c.xlsx
+++ b/trend_results/Rivers/KahuterawaatJohnstonsRata_214bbeed9c.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0097270581326189</v>
+        <v>0.990272941867381</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.912681297929931</v>
+        <v>0.087318702070069</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.181671650871494</v>
+        <v>0.818328349128506</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.850534155752983</v>
+        <v>0.149465844247017</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2904,11 +2904,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2919,31 +2919,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.15610819417166</v>
+        <v>0.001208685364927</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8</v>
+        <v>0.506756756756757</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>0.49</v>
+        <v>1.6</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0323600295815469</v>
+        <v>-0.07032458229395119</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0667461502568138</v>
+        <v>-0.116470025510204</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0012650392033913</v>
+        <v>-0.0256141426000349</v>
       </c>
       <c r="N28" t="n">
-        <v>-6.60408766970344</v>
+        <v>-4.39528639337195</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2981,7 +2981,11 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2991,46 +2995,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.110335680959923</v>
+        <v>0.5</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.788819875776398</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>120</v>
+        <v>10.76</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.6975495925545629</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-4.73801864682259</v>
+        <v>-0.0233220414387948</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5009641957076461</v>
+        <v>0.0213863789056628</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.581291327128802</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3039,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3068,7 +3072,11 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3078,46 +3086,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>0.08459950771421899</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.204819277108434</v>
       </c>
       <c r="H30" t="n">
+        <v>0.0783132530120482</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>6.63</v>
+        <v>0.007</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0041235448135928</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.392207875577247</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.245241561142719</v>
+        <v>0.0001591169542137</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0621952460572066</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3126,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3155,7 +3163,11 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3180,31 +3192,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.20948086257967</v>
+        <v>0.008924290678485601</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0121212121212121</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9</v>
+        <v>0.56969696969697</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5235</v>
+        <v>62</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.004652065404475</v>
+        <v>1.9783788987293</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0287861147388061</v>
+        <v>0.498727291493128</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0088193464187237</v>
+        <v>4.30358529591457</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8886466866236959</v>
+        <v>3.19093370762791</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3213,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3242,7 +3254,11 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3252,46 +3268,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.894751149972331</v>
+        <v>0.923815254935715</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.878980891719745</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.191082802547771</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J32" t="n">
-        <v>118</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
-        <v>0.899076923076923</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.585299330645932</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.87897087063623</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.761929595827901</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3300,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3329,7 +3345,11 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3339,46 +3359,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.946297681834873</v>
+        <v>0.479174090982212</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.490445859872611</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.0828025477707006</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>6.4075</v>
+        <v>0.002</v>
       </c>
       <c r="K33" t="n">
-        <v>0.222380815623205</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>6.75756144931016e-05</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.32456868590264</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>3.47063309595326</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3387,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3416,7 +3436,1162 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.966531402950279</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.101910828025478</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.808917197452229</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0021470608339029</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0046893009987605</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1.78921736158578</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.992091403378891</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.583850931677019</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0174343675417661</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0059147279232143</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0282309945778933</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.22380446138339</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.999055816865001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0120481927710843</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.668674698795181</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0041959940160729</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0074133489461358</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0016922951302545</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-3.10814371560956</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.991795539009915</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.463855421686747</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.004997947454844</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0092763020790414</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0015429942288402</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.85109164994222</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.09612942020642511</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0060240963855421</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.265060240963855</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0001610449735449</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0003781055900621</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.97603014269681</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0427566694284608</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8915662650602409</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0395827929703884</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0011794259391132</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.08276869947805381</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.16892016276101</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.15610819417166</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0323600295815469</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0667461502568138</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0012650392033913</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-6.60408766970344</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>120</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.6975495925545629</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-4.73801864682259</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5009641957076461</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.581291327128802</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0041235448135928</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.392207875577247</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.245241561142719</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0621952460572066</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.20948086257967</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5235</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.004652065404475</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0287861147388061</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0088193464187237</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.8886466866236959</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.894751149972331</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>118</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.899076923076923</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.585299330645932</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.87897087063623</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.761929595827901</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.946297681834873</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6.4075</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.222380815623205</v>
+      </c>
+      <c r="L45" t="n">
+        <v>6.75756144931016e-05</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.32456868590264</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.47063309595326</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Kahuterawa at Johnstons Rata</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>15</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.944620104493448</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>118</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.624358974358974</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.13707167201877</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.5291177748804869</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1822322</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5519097</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_11c</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/KahuterawaatJohnstonsRata_214bbeed9c.xlsx
+++ b/trend_results/Rivers/KahuterawaatJohnstonsRata_214bbeed9c.xlsx
@@ -569,17 +569,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.509187082191519</v>
+        <v>0.252836397775628</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.754716981132076</v>
+        <v>0.8</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -588,16 +588,16 @@
         <v>1.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.058292415787202</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.138719768502997</v>
+        <v>-0.219790080622798</v>
       </c>
       <c r="M2" t="n">
-        <v>0.158331342315847</v>
+        <v>0.129258621539508</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-4.48403198363092</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.990272941867381</v>
+        <v>0.697089154723832</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8947368421052631</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.76</v>
+        <v>10.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.102015796703297</v>
+        <v>0.0464495320421162</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0504398785496465</v>
+        <v>-0.0399752653195598</v>
       </c>
       <c r="M3" t="n">
-        <v>0.145480121477863</v>
+        <v>0.107090171216697</v>
       </c>
       <c r="N3" t="n">
-        <v>0.948102199844764</v>
+        <v>0.430088259649225</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,11 +751,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0336766211688858</v>
+        <v>0.249672286869072</v>
       </c>
       <c r="G4" t="n">
         <v>0.186440677966102</v>
@@ -770,16 +770,16 @@
         <v>0.007</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0005550911854103</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0012547661423969</v>
+        <v>0.0006902175657908</v>
       </c>
       <c r="N4" t="n">
-        <v>7.92987407729049</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.669019582892215</v>
+        <v>0.936183185303104</v>
       </c>
       <c r="G5" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H5" t="n">
-        <v>0.711864406779661</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="K5" t="n">
-        <v>-3.15730209281165</v>
+        <v>-9.03090659340659</v>
       </c>
       <c r="L5" t="n">
-        <v>-17.1809926307106</v>
+        <v>-21.1717660399325</v>
       </c>
       <c r="M5" t="n">
-        <v>5.19847580671079</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.87027462982877</v>
+        <v>-13.2807449903038</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,18 +933,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
+          <t>&lt; 3 unique values</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.9411764705882349</v>
+        <v>0.963636363636364</v>
       </c>
       <c r="H6" t="n">
-        <v>0.156862745098039</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.760364815759571</v>
+        <v>0.998419435783539</v>
       </c>
       <c r="G7" t="n">
-        <v>0.542372881355932</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="H7" t="n">
-        <v>0.101694915254237</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1103,35 +1103,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.256901146903482</v>
+        <v>0.192617927201847</v>
       </c>
       <c r="G8" t="n">
         <v>0.0677966101694915</v>
       </c>
       <c r="H8" t="n">
-        <v>0.830508474576271</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.077</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0018635204081632</v>
+        <v>0.004562657610815</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0071084200648311</v>
+        <v>-0.008029358729177399</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0102529291935846</v>
+        <v>0.0108136562340291</v>
       </c>
       <c r="N8" t="n">
-        <v>2.42015637423801</v>
+        <v>6.42627832509159</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.087318702070069</v>
+        <v>0.253250793704545</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.803571428571429</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.89</v>
+        <v>7.83</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0372704081632658</v>
+        <v>-0.0174656306037059</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0980438237128316</v>
+        <v>-0.0640883030475124</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009180479098387101</v>
+        <v>0.0307066917037382</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.472375261891835</v>
+        <v>-0.223060416394712</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.281341927597306</v>
+        <v>0.174072312476531</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.796610169491525</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.081</v>
+        <v>0.076</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0024904724421522</v>
+        <v>0.0038431952049112</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0061618760924441</v>
+        <v>-0.0075633822357591</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0107271938212549</v>
+        <v>0.0120412087912088</v>
       </c>
       <c r="N10" t="n">
-        <v>3.07465733599048</v>
+        <v>5.05683579593583</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1361,43 +1361,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.756306678334268</v>
+        <v>0.356211124939333</v>
       </c>
       <c r="G11" t="n">
-        <v>0.186440677966102</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.305084745762712</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.543526785714286</v>
+        <v>-0.009904674200682501</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0100695037111191</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1452,14 +1452,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1467,28 +1467,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.529225677014545</v>
+        <v>0.354141077308144</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.491525423728814</v>
+        <v>0.440677966101695</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.24</v>
+        <v>0.016</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0149391846179073</v>
+        <v>-0.0006648390974728</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0105772143298613</v>
+        <v>0.0011052817654514</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.07736522825160511</v>
+        <v>0.800566924605622</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.474576271186441</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.017</v>
+        <v>1.87</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0007562111801242</v>
+        <v>-0.08504877281309001</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0.318277889356112</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0019514314841225</v>
+        <v>0.116343026690594</v>
       </c>
       <c r="N13" t="n">
-        <v>4.44830105955426</v>
+        <v>-4.54806271727754</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.546858232719883</v>
+        <v>0.000279451641622</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="H14" t="n">
-        <v>0.915254237288136</v>
+        <v>0.616161616161616</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0158116883116883</v>
+        <v>-0.169930213464696</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.35067328359212</v>
+        <v>-0.282046332046332</v>
       </c>
       <c r="M14" t="n">
-        <v>0.248011552464482</v>
+        <v>-0.0879813872724801</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.735427363334341</v>
+        <v>-10.6206383415435</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1725,14 +1725,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.28072687920477e-05</v>
+        <v>0.885449057967471</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0280373831775701</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5981308411214949</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.6</v>
+        <v>10.76</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.217410714285714</v>
+        <v>0.0228103044496487</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.314959999372219</v>
+        <v>-0.0149424259857504</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.125731497418244</v>
+        <v>0.0514868051619192</v>
       </c>
       <c r="N15" t="n">
-        <v>-13.5881696428571</v>
+        <v>0.211991677041345</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1816,46 +1816,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8845072513415591</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.159663865546218</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.109243697478992</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.818328349128506</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.829059829059829</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.76</v>
+        <v>0.007</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0199408553230211</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0184363179792584</v>
+        <v>-0.0002526807333102</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0501717032967025</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.185323934228821</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1907,46 +1907,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.632259779219323</v>
+        <v>0.673710778711919</v>
       </c>
       <c r="G17" t="n">
-        <v>0.151260504201681</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H17" t="n">
-        <v>0.109243697478992</v>
+        <v>0.550847457627119</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008</v>
+        <v>72.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.571819960861057</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0001722272421357</v>
+        <v>-4.11649211648432</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.97944446266469</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-0.788717187394561</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1998,46 +1998,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0206267191167416</v>
+        <v>0.963870143410714</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="H18" t="n">
-        <v>0.550847457627119</v>
+        <v>0.18018018018018</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>72.5</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>3.0103021978022</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07872286809234599</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>6.15372360860573</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>4.15214096248579</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2100,23 +2100,23 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.838330808662379</v>
+        <v>0.999662370298361</v>
       </c>
       <c r="G19" t="n">
-        <v>0.918181818181818</v>
+        <v>0.46218487394958</v>
       </c>
       <c r="H19" t="n">
-        <v>0.181818181818182</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2195,28 +2195,28 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.997526432385109</v>
+        <v>0.594253157365209</v>
       </c>
       <c r="G20" t="n">
-        <v>0.378151260504202</v>
+        <v>0.109243697478992</v>
       </c>
       <c r="H20" t="n">
-        <v>0.100840336134454</v>
+        <v>0.8067226890756301</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002</v>
+        <v>0.104</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0001429549902152</v>
+        <v>-0.0039666014817429</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.001402537842686</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2286,31 +2286,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.213388368266492</v>
+        <v>0.049424645195998</v>
       </c>
       <c r="G21" t="n">
-        <v>0.117647058823529</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8067226890756301</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.104</v>
+        <v>7.85</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003495215311004</v>
+        <v>-0.017064406058667</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0005211395605796</v>
+        <v>-0.0353161056979811</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0029977775134613</v>
+        <v>-0.0012066400900442</v>
       </c>
       <c r="N21" t="n">
-        <v>0.336078395288921</v>
+        <v>-0.217380968900216</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2348,11 +2348,7 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2362,7 +2358,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2373,35 +2369,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.149465844247017</v>
+        <v>0.633332484384817</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H22" t="n">
-        <v>0.652173913043478</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.87</v>
+        <v>0.105</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0132044024027064</v>
+        <v>-0.0003998357963875</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0320567493357882</v>
+        <v>-0.00400168689748</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0066506602706831</v>
+        <v>0.0016579329059215</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.167781479068697</v>
+        <v>-0.380795996559543</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2406,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2439,7 +2435,11 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2464,31 +2464,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.247591588576634</v>
+        <v>0.708960174035249</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0168067226890756</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.647058823529412</v>
+        <v>0.436974789915966</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.105</v>
+        <v>0.25</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0009986329460013</v>
+        <v>-0.001425644028103</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0017074883431054</v>
+        <v>-0.0066469517743403</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0033405124946296</v>
+        <v>0.0032468804926082</v>
       </c>
       <c r="N23" t="n">
-        <v>0.951078996191778</v>
+        <v>-0.570257611241218</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2551,35 +2551,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0301129268309579</v>
+        <v>0.0919880609181956</v>
       </c>
       <c r="G24" t="n">
-        <v>0.134453781512605</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.218487394957983</v>
+        <v>0.310924369747899</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>0.016</v>
       </c>
       <c r="K24" t="n">
-        <v>0.121912550066756</v>
+        <v>0.0002308786346396</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.266217201166181</v>
+        <v>0.0005209291357581</v>
       </c>
       <c r="N24" t="n">
-        <v>6.09562750333778</v>
+        <v>1.4429914664981</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2642,35 +2642,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.447909131177286</v>
+        <v>0.0282872589856511</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.504201680672269</v>
+        <v>0.907563025210084</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.256</v>
+        <v>1.87</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.07835120949338201</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.004105358205564</v>
+        <v>0.0100476488360052</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0051984613943796</v>
+        <v>0.155749664883668</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>4.189904250983</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0011846294241189</v>
+        <v>0.0004927079846179</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0529801324503311</v>
       </c>
       <c r="H26" t="n">
-        <v>0.310924369747899</v>
+        <v>0.509933774834437</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>0.016</v>
+        <v>1.6</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000513231850117</v>
+        <v>-0.0740705272645336</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000237359903075</v>
+        <v>-0.117971542344804</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0008553864168618</v>
+        <v>-0.0321862029962184</v>
       </c>
       <c r="N26" t="n">
-        <v>3.20769906323185</v>
+        <v>-4.62940795403335</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2813,46 +2813,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0020270922548087</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.899159663865546</v>
+        <v>0.76878612716763</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.87</v>
+        <v>10.76</v>
       </c>
       <c r="K27" t="n">
-        <v>0.101904304029304</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0455112094586856</v>
+        <v>-0.0232286955561329</v>
       </c>
       <c r="M27" t="n">
-        <v>0.189296200926516</v>
+        <v>0.0199627760101156</v>
       </c>
       <c r="N27" t="n">
-        <v>5.44942802295743</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2915,35 +2915,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.001208685364927</v>
+        <v>0.283277042578575</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0540540540540541</v>
+        <v>0.202247191011236</v>
       </c>
       <c r="H28" t="n">
-        <v>0.506756756756757</v>
+        <v>0.0730337078651685</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.6</v>
+        <v>0.007</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.07032458229395119</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.116470025510204</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0256141426000349</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-4.39528639337195</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3006,35 +3006,35 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.0695113800801055</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0112994350282486</v>
       </c>
       <c r="H29" t="n">
-        <v>0.788819875776398</v>
+        <v>0.548022598870056</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.76</v>
+        <v>61</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.907453416149068</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0233220414387948</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0213863789056628</v>
+        <v>2.50858516483516</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.48762855106405</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3097,23 +3097,23 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.08459950771421899</v>
+        <v>0.963892246197086</v>
       </c>
       <c r="G30" t="n">
-        <v>0.204819277108434</v>
+        <v>0.887573964497041</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0783132530120482</v>
+        <v>0.177514792899408</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0001591169542137</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,46 +3177,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.008924290678485601</v>
+        <v>0.88948940199142</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0121212121212121</v>
+        <v>0.526627218934911</v>
       </c>
       <c r="H31" t="n">
-        <v>0.56969696969697</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>62</v>
+        <v>0.002</v>
       </c>
       <c r="K31" t="n">
-        <v>1.9783788987293</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.498727291493128</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>4.30358529591457</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.19093370762791</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3268,46 +3268,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.923815254935715</v>
+        <v>0.992227891394286</v>
       </c>
       <c r="G32" t="n">
-        <v>0.878980891719745</v>
+        <v>0.100591715976331</v>
       </c>
       <c r="H32" t="n">
-        <v>0.191082802547771</v>
+        <v>0.804733727810651</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.115</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.0027090797492737</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0052004990875754</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-0.000372876690208</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-2.35572152110758</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,46 +3359,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.479174090982212</v>
+        <v>0.9742214853308629</v>
       </c>
       <c r="G33" t="n">
-        <v>0.490445859872611</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0828025477707006</v>
+        <v>0.560693641618497</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.002</v>
+        <v>7.79</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0117968944099379</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0026134027601189</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0215269112275385</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.151436385236687</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,11 +3436,7 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3450,7 +3446,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3465,31 +3461,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.966531402950279</v>
+        <v>0.999874838618376</v>
       </c>
       <c r="G34" t="n">
-        <v>0.101910828025478</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="H34" t="n">
-        <v>0.808917197452229</v>
+        <v>0.752808988764045</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.12</v>
+        <v>0.1255</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0021470608339029</v>
+        <v>-0.0043093767322435</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0046893009987605</v>
+        <v>-0.0073525630786667</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-0.0022322382510987</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.78921736158578</v>
+        <v>-3.43376632051277</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3494,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3529,7 +3525,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3537,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3556,31 +3552,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.992091403378891</v>
+        <v>0.99714252662021</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.583850931677019</v>
+        <v>0.438202247191011</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.79</v>
+        <v>0.27</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0174343675417661</v>
+        <v>-0.0050171703296703</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0059147279232143</v>
+        <v>-0.008553864168618201</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0282309945778933</v>
+        <v>-0.0019950549298035</v>
       </c>
       <c r="N35" t="n">
-        <v>0.22380446138339</v>
+        <v>-1.85821123321123</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3585,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3618,7 +3614,11 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3628,14 +3628,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3643,31 +3643,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.999055816865001</v>
+        <v>0.191891069222742</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0120481927710843</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H36" t="n">
-        <v>0.668674698795181</v>
+        <v>0.252808988764045</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.135</v>
+        <v>0.016</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0041959940160729</v>
+        <v>6.88371654730494e-05</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0074133489461358</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0016922951302545</v>
+        <v>0.0002775492615921</v>
       </c>
       <c r="N36" t="n">
-        <v>-3.10814371560956</v>
+        <v>0.430232284206559</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3734,31 +3734,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.991795539009915</v>
+        <v>0.0713694124298806</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.463855421686747</v>
+        <v>0.882022471910112</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.27</v>
+        <v>1.81</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.004997947454844</v>
+        <v>0.031519739655334</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0092763020790414</v>
+        <v>-0.0045818212274838</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0015429942288402</v>
+        <v>0.0737498813117092</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.85109164994222</v>
+        <v>1.74142208040519</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3810,11 +3810,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3825,31 +3825,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.09612942020642511</v>
+        <v>0.5</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0060240963855421</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.265060240963855</v>
+        <v>0.8</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0165</v>
+        <v>0.49</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0001610449735449</v>
+        <v>0.0024779511533242</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-0.0432474516413615</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0003781055900621</v>
+        <v>0.0255574959977384</v>
       </c>
       <c r="N38" t="n">
-        <v>0.97603014269681</v>
+        <v>0.505704317004957</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3887,11 +3887,7 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3901,46 +3897,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0427566694284608</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.8915662650602409</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.825</v>
+        <v>120</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0395827929703884</v>
+        <v>0.576821083505863</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0011794259391132</v>
+        <v>-3.10808716432095</v>
       </c>
       <c r="M39" t="n">
-        <v>0.08276869947805381</v>
+        <v>2.62312396083784</v>
       </c>
       <c r="N39" t="n">
-        <v>2.16892016276101</v>
+        <v>0.480684236254886</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3945,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3978,11 +3974,7 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3992,7 +3984,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4007,31 +3999,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.15610819417166</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.49</v>
+        <v>6.61</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0323600295815469</v>
+        <v>-0.114253125137914</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0667461502568138</v>
+        <v>-0.541721383113016</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0012650392033913</v>
+        <v>0.14035286451414</v>
       </c>
       <c r="N40" t="n">
-        <v>-6.60408766970344</v>
+        <v>-1.72848903385649</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4040,7 +4032,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4079,11 +4071,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4094,31 +4086,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.110335680959923</v>
+        <v>0.20948086257967</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>120</v>
+        <v>0.5385</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.6975495925545629</v>
+        <v>-0.0050379310344827</v>
       </c>
       <c r="L41" t="n">
-        <v>-4.73801864682259</v>
+        <v>-0.0287861147388061</v>
       </c>
       <c r="M41" t="n">
-        <v>0.5009641957076461</v>
+        <v>0.0057364197750866</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.581291327128802</v>
+        <v>-0.935548938622611</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4166,11 +4158,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4181,7 +4173,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5</v>
+        <v>0.8144533152386511</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4193,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>6.63</v>
+        <v>119.5</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0041235448135928</v>
+        <v>0.716526251526251</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.392207875577247</v>
+        <v>-0.60582986666151</v>
       </c>
       <c r="M42" t="n">
-        <v>0.245241561142719</v>
+        <v>1.56718746153506</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0621952460572066</v>
+        <v>0.599603557762553</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4214,7 +4206,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4253,7 +4245,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4268,31 +4260,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.20948086257967</v>
+        <v>0.8584345646688269</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5235</v>
+        <v>6.438</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.004652065404475</v>
+        <v>0.09989743589743599</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0287861147388061</v>
+        <v>-0.128810009415435</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0088193464187237</v>
+        <v>0.302070832453435</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.8886466866236959</v>
+        <v>1.551684310305</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4301,7 +4293,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4340,11 +4332,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4355,31 +4347,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.894751149972331</v>
+        <v>0.055918957995149</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>118</v>
+        <v>0.548</v>
       </c>
       <c r="K44" t="n">
-        <v>0.899076923076923</v>
+        <v>-0.0071477495107632</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.585299330645932</v>
+        <v>-0.0184973396407187</v>
       </c>
       <c r="M44" t="n">
-        <v>1.87897087063623</v>
+        <v>-7.27634386379218e-05</v>
       </c>
       <c r="N44" t="n">
-        <v>0.761929595827901</v>
+        <v>-1.30433385232905</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4388,7 +4380,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4427,11 +4419,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4442,31 +4434,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.946297681834873</v>
+        <v>0.973635185617412</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6.4075</v>
+        <v>119</v>
       </c>
       <c r="K45" t="n">
-        <v>0.222380815623205</v>
+        <v>0.66997859981657</v>
       </c>
       <c r="L45" t="n">
-        <v>6.75756144931016e-05</v>
+        <v>0.142948622297927</v>
       </c>
       <c r="M45" t="n">
-        <v>0.32456868590264</v>
+        <v>1.04658306313968</v>
       </c>
       <c r="N45" t="n">
-        <v>3.47063309595326</v>
+        <v>0.563007226736613</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4475,7 +4467,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4514,7 +4506,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4529,31 +4521,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.944620104493448</v>
+        <v>0.837788154739211</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.785714285714286</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>118</v>
+        <v>6.423</v>
       </c>
       <c r="K46" t="n">
-        <v>0.624358974358974</v>
+        <v>0.0846956521739131</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-0.0562847978715481</v>
       </c>
       <c r="M46" t="n">
-        <v>1.13707167201877</v>
+        <v>0.240367501254906</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5291177748804869</v>
+        <v>1.31863073600986</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4562,7 +4554,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">

--- a/trend_results/Rivers/KahuterawaatJohnstonsRata_214bbeed9c.xlsx
+++ b/trend_results/Rivers/KahuterawaatJohnstonsRata_214bbeed9c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -136,12 +136,12 @@
     <t>ok</t>
   </si>
   <si>
+    <t>&lt; 3 unique values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>&lt; 3 unique values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
@@ -151,49 +151,46 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Likely increasing</t>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
+    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Palmerston North City</t>
@@ -578,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,31 +669,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.252836397775628</v>
+        <v>0.08068499772067809</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="K2">
-        <v>-0.058292415787202</v>
+        <v>-0.130214317488561</v>
       </c>
       <c r="L2">
-        <v>-0.219790080622798</v>
+        <v>-0.355587549690834</v>
       </c>
       <c r="M2">
-        <v>0.129258621539508</v>
+        <v>0.0163942358320979</v>
       </c>
       <c r="N2">
-        <v>-4.48403198363092</v>
+        <v>-17.3619089984748</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -711,19 +708,19 @@
         <v>5519097</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" t="s">
         <v>63</v>
-      </c>
-      <c r="W2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -743,31 +740,31 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.697089154723832</v>
+        <v>0.96806765544602</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.844827586206897</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.8</v>
+        <v>10.925</v>
       </c>
       <c r="K3">
-        <v>0.0464495320421162</v>
+        <v>0.0852918956043956</v>
       </c>
       <c r="L3">
-        <v>-0.0399752653195598</v>
+        <v>0.0149411637609358</v>
       </c>
       <c r="M3">
-        <v>0.107090171216697</v>
+        <v>0.140939134979531</v>
       </c>
       <c r="N3">
-        <v>0.430088259649225</v>
+        <v>0.780703849925818</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -782,19 +779,19 @@
         <v>5519097</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -811,40 +808,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>0.249672286869072</v>
+        <v>0.106837191913344</v>
       </c>
       <c r="G4">
-        <v>0.186440677966102</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.186440677966102</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0002393512450851</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0006902175657908</v>
+        <v>0.0007442622388382</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>3.9891874180865</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q4">
         <v>1822322</v>
@@ -853,19 +850,19 @@
         <v>5519097</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -879,43 +876,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.936183185303104</v>
+        <v>0.867369797547353</v>
       </c>
       <c r="G5">
-        <v>0.0169491525423729</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H5">
-        <v>0.677966101694915</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>68</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="K5">
-        <v>-9.03090659340659</v>
+        <v>-6.42197802197802</v>
       </c>
       <c r="L5">
-        <v>-21.1717660399325</v>
+        <v>-24.2033327660763</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4.07546704138737</v>
       </c>
       <c r="N5">
-        <v>-13.2807449903038</v>
+        <v>-8.494679923251351</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q5">
         <v>1822322</v>
@@ -924,19 +921,19 @@
         <v>5519097</v>
       </c>
       <c r="S5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -953,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>0.963636363636364</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="H6">
-        <v>0.0909090909090909</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q6">
         <v>1822322</v>
@@ -977,19 +974,19 @@
         <v>5519097</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1006,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>0.998419435783539</v>
+        <v>0.999997963546031</v>
       </c>
       <c r="G7">
-        <v>0.627118644067797</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="H7">
         <v>0.0847457627118644</v>
@@ -1039,7 +1036,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q7">
         <v>1822322</v>
@@ -1048,19 +1045,19 @@
         <v>5519097</v>
       </c>
       <c r="S7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,13 +1077,13 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.192617927201847</v>
+        <v>0.944292381786051</v>
       </c>
       <c r="G8">
         <v>0.0677966101694915</v>
       </c>
       <c r="H8">
-        <v>0.88135593220339</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1095,22 +1092,22 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="K8">
-        <v>0.004562657610815</v>
+        <v>-0.0070644760569024</v>
       </c>
       <c r="L8">
-        <v>-0.008029358729177399</v>
+        <v>-0.0146275030326004</v>
       </c>
       <c r="M8">
-        <v>0.0108136562340291</v>
+        <v>-0.0004240079564106</v>
       </c>
       <c r="N8">
-        <v>6.42627832509159</v>
+        <v>-9.949966277327359</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q8">
         <v>1822322</v>
@@ -1119,19 +1116,19 @@
         <v>5519097</v>
       </c>
       <c r="S8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,13 +1148,13 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.253250793704545</v>
+        <v>0.443975957474293</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.793103448275862</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1166,22 +1163,22 @@
         <v>7.83</v>
       </c>
       <c r="K9">
-        <v>-0.0174656306037059</v>
+        <v>-0.0054352678571427</v>
       </c>
       <c r="L9">
-        <v>-0.0640883030475124</v>
+        <v>-0.0522344920256305</v>
       </c>
       <c r="M9">
-        <v>0.0307066917037382</v>
+        <v>0.045061736351044</v>
       </c>
       <c r="N9">
-        <v>-0.223060416394712</v>
+        <v>-0.0694159368728319</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q9">
         <v>1822322</v>
@@ -1190,16 +1187,16 @@
         <v>5519097</v>
       </c>
       <c r="S9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1219,37 +1216,37 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.174072312476531</v>
+        <v>0.914844764406779</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.864406779661017</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.076</v>
+        <v>0.077</v>
       </c>
       <c r="K10">
-        <v>0.0038431952049112</v>
+        <v>-0.0072820643642072</v>
       </c>
       <c r="L10">
-        <v>-0.0075633822357591</v>
+        <v>-0.0134868786054672</v>
       </c>
       <c r="M10">
-        <v>0.0120412087912088</v>
+        <v>0.002821478728943</v>
       </c>
       <c r="N10">
-        <v>5.05683579593583</v>
+        <v>-9.45722644702237</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q10">
         <v>1822322</v>
@@ -1258,19 +1255,19 @@
         <v>5519097</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,7 +1287,7 @@
         <v>42</v>
       </c>
       <c r="F11">
-        <v>0.356211124939333</v>
+        <v>0.529225677014545</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1308,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.009904674200682501</v>
+        <v>-0.015051510989011</v>
       </c>
       <c r="M11">
-        <v>0.0100695037111191</v>
+        <v>0.0066469517743403</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1320,7 +1317,7 @@
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q11">
         <v>1822322</v>
@@ -1329,19 +1326,19 @@
         <v>5519097</v>
       </c>
       <c r="S11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,7 +1358,7 @@
         <v>42</v>
       </c>
       <c r="F12">
-        <v>0.354141077308144</v>
+        <v>0.623563301784718</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1373,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.0006648390974728</v>
+        <v>-0.0010648688046647</v>
       </c>
       <c r="M12">
-        <v>0.0011052817654514</v>
+        <v>0.0007112570010154</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1391,7 +1388,7 @@
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q12">
         <v>1822322</v>
@@ -1400,19 +1397,19 @@
         <v>5519097</v>
       </c>
       <c r="S12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1432,7 +1429,7 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.800566924605622</v>
+        <v>0.940978137271106</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1444,25 +1441,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="K13">
-        <v>-0.08504877281309001</v>
+        <v>-0.207790771175727</v>
       </c>
       <c r="L13">
-        <v>-0.318277889356112</v>
+        <v>-0.4329911338903</v>
       </c>
       <c r="M13">
-        <v>0.116343026690594</v>
+        <v>0.009399300102035799</v>
       </c>
       <c r="N13">
-        <v>-4.54806271727754</v>
+        <v>-10.8224359987358</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q13">
         <v>1822322</v>
@@ -1471,19 +1468,19 @@
         <v>5519097</v>
       </c>
       <c r="S13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1503,37 +1500,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.000279451641622</v>
+        <v>0.0001380220857489</v>
       </c>
       <c r="G14">
-        <v>0.0202020202020202</v>
+        <v>0.0212765957446809</v>
       </c>
       <c r="H14">
-        <v>0.616161616161616</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14">
-        <v>1.6</v>
+        <v>1.375</v>
       </c>
       <c r="K14">
-        <v>-0.169930213464696</v>
+        <v>-0.175427955665025</v>
       </c>
       <c r="L14">
-        <v>-0.282046332046332</v>
+        <v>-0.293422391875716</v>
       </c>
       <c r="M14">
-        <v>-0.0879813872724801</v>
+        <v>-0.0867492937341658</v>
       </c>
       <c r="N14">
-        <v>-10.6206383415435</v>
+        <v>-12.7583967756382</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q14">
         <v>1822322</v>
@@ -1542,19 +1539,19 @@
         <v>5519097</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14" t="s">
         <v>63</v>
-      </c>
-      <c r="W14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1574,31 +1571,31 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.885449057967471</v>
+        <v>0.974554760252161</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.811965811965812</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.76</v>
+        <v>10.8</v>
       </c>
       <c r="K15">
-        <v>0.0228103044496487</v>
+        <v>0.0347857142857144</v>
       </c>
       <c r="L15">
-        <v>-0.0149424259857504</v>
+        <v>0.0071160894958073</v>
       </c>
       <c r="M15">
-        <v>0.0514868051619192</v>
+        <v>0.0546632653061227</v>
       </c>
       <c r="N15">
-        <v>0.211991677041345</v>
+        <v>0.322089947089948</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
@@ -1613,19 +1610,19 @@
         <v>5519097</v>
       </c>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1642,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>0.8845072513415591</v>
+        <v>0.766101344529178</v>
       </c>
       <c r="G16">
-        <v>0.159663865546218</v>
+        <v>0.151260504201681</v>
       </c>
       <c r="H16">
-        <v>0.109243697478992</v>
+        <v>0.092436974789916</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1663,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0002526807333102</v>
+        <v>-0.0001621306269356</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1675,7 +1672,7 @@
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q16">
         <v>1822322</v>
@@ -1684,19 +1681,19 @@
         <v>5519097</v>
       </c>
       <c r="S16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1716,37 +1713,37 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.673710778711919</v>
+        <v>0.674976333684729</v>
       </c>
       <c r="G17">
-        <v>0.0169491525423729</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H17">
-        <v>0.550847457627119</v>
+        <v>0.606837606837607</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>72.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="K17">
-        <v>-0.571819960861057</v>
+        <v>-0.312821171634121</v>
       </c>
       <c r="L17">
-        <v>-4.11649211648432</v>
+        <v>-3.89033821303736</v>
       </c>
       <c r="M17">
-        <v>1.97944446266469</v>
+        <v>1.98431071294742</v>
       </c>
       <c r="N17">
-        <v>-0.788717187394561</v>
+        <v>-0.413784618563653</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q17">
         <v>1822322</v>
@@ -1755,19 +1752,19 @@
         <v>5519097</v>
       </c>
       <c r="S17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1787,13 +1784,13 @@
         <v>43</v>
       </c>
       <c r="F18">
-        <v>0.963870143410714</v>
+        <v>0.91802436548003</v>
       </c>
       <c r="G18">
-        <v>0.918918918918919</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="H18">
-        <v>0.18018018018018</v>
+        <v>0.153153153153153</v>
       </c>
       <c r="I18">
         <v>11</v>
@@ -1817,7 +1814,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q18">
         <v>1822322</v>
@@ -1826,19 +1823,19 @@
         <v>5519097</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1855,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>0.999662370298361</v>
+        <v>0.999999936015296</v>
       </c>
       <c r="G19">
-        <v>0.46218487394958</v>
+        <v>0.5630252100840339</v>
       </c>
       <c r="H19">
-        <v>0.100840336134454</v>
+        <v>0.0840336134453782</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1876,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-0.0001485127184027</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1888,7 +1885,7 @@
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q19">
         <v>1822322</v>
@@ -1897,19 +1894,19 @@
         <v>5519097</v>
       </c>
       <c r="S19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1926,40 +1923,40 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>0.594253157365209</v>
+        <v>0.994873706404905</v>
       </c>
       <c r="G20">
-        <v>0.109243697478992</v>
+        <v>0.092436974789916</v>
       </c>
       <c r="H20">
-        <v>0.8067226890756301</v>
+        <v>0.798319327731092</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.104</v>
+        <v>0.103</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-0.0052178571428571</v>
       </c>
       <c r="L20">
-        <v>-0.0039666014817429</v>
+        <v>-0.008586974294207199</v>
       </c>
       <c r="M20">
-        <v>0.001402537842686</v>
+        <v>-0.0009483675825194</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>-5.06588072122053</v>
       </c>
       <c r="O20" t="s">
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q20">
         <v>1822322</v>
@@ -1968,19 +1965,19 @@
         <v>5519097</v>
       </c>
       <c r="S20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1994,37 +1991,37 @@
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.049424645195998</v>
+        <v>0.029372535964126</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.646551724137931</v>
+        <v>0.663793103448276</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.85</v>
+        <v>7.845</v>
       </c>
       <c r="K21">
-        <v>-0.017064406058667</v>
+        <v>-0.0200686813186815</v>
       </c>
       <c r="L21">
-        <v>-0.0353161056979811</v>
+        <v>-0.0364531566525402</v>
       </c>
       <c r="M21">
-        <v>-0.0012066400900442</v>
+        <v>-0.0030401083058345</v>
       </c>
       <c r="N21">
-        <v>-0.217380968900216</v>
+        <v>-0.255814930767132</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
@@ -2039,16 +2036,16 @@
         <v>5519097</v>
       </c>
       <c r="S21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2065,16 +2062,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22">
-        <v>0.633332484384817</v>
+        <v>0.990118928587627</v>
       </c>
       <c r="G22">
         <v>0.0168067226890756</v>
       </c>
       <c r="H22">
-        <v>0.714285714285714</v>
+        <v>0.6890756302521009</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2083,22 +2080,22 @@
         <v>0.105</v>
       </c>
       <c r="K22">
-        <v>-0.0003998357963875</v>
+        <v>-0.0050844933820173</v>
       </c>
       <c r="L22">
-        <v>-0.00400168689748</v>
+        <v>-0.0093748909473685</v>
       </c>
       <c r="M22">
-        <v>0.0016579329059215</v>
+        <v>-0.0014999775634713</v>
       </c>
       <c r="N22">
-        <v>-0.380795996559543</v>
+        <v>-4.84237464954033</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q22">
         <v>1822322</v>
@@ -2107,19 +2104,19 @@
         <v>5519097</v>
       </c>
       <c r="S22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2139,13 +2136,13 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.708960174035249</v>
+        <v>0.94823889828424</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.436974789915966</v>
+        <v>0.369747899159664</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2154,22 +2151,22 @@
         <v>0.25</v>
       </c>
       <c r="K23">
-        <v>-0.001425644028103</v>
+        <v>-0.0049931647300068</v>
       </c>
       <c r="L23">
-        <v>-0.0066469517743403</v>
+        <v>-0.0100285918956708</v>
       </c>
       <c r="M23">
-        <v>0.0032468804926082</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>-0.570257611241218</v>
+        <v>-1.99726589200273</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q23">
         <v>1822322</v>
@@ -2178,19 +2175,19 @@
         <v>5519097</v>
       </c>
       <c r="S23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2210,7 +2207,7 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.0919880609181956</v>
+        <v>0.100209345908822</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2225,22 +2222,22 @@
         <v>0.016</v>
       </c>
       <c r="K24">
-        <v>0.0002308786346396</v>
+        <v>0.0002070578231292</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0005209291357581</v>
+        <v>0.0005128875934459</v>
       </c>
       <c r="N24">
-        <v>1.4429914664981</v>
+        <v>1.29411139455782</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q24">
         <v>1822322</v>
@@ -2249,19 +2246,19 @@
         <v>5519097</v>
       </c>
       <c r="S24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2275,43 +2272,43 @@
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.0282872589856511</v>
+        <v>0.480764964815791</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.907563025210084</v>
+        <v>0.915966386554622</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="K25">
-        <v>0.07835120949338201</v>
+        <v>0.0020213060320974</v>
       </c>
       <c r="L25">
-        <v>0.0100476488360052</v>
+        <v>-0.0744060183988533</v>
       </c>
       <c r="M25">
-        <v>0.155749664883668</v>
+        <v>0.0827914108216771</v>
       </c>
       <c r="N25">
-        <v>4.189904250983</v>
+        <v>0.105276355838406</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q25">
         <v>1822322</v>
@@ -2320,19 +2317,19 @@
         <v>5519097</v>
       </c>
       <c r="S25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2352,13 +2349,13 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.0004927079846179</v>
+        <v>1.7746325390311E-06</v>
       </c>
       <c r="G26">
-        <v>0.0529801324503311</v>
+        <v>0.0551724137931034</v>
       </c>
       <c r="H26">
-        <v>0.509933774834437</v>
+        <v>0.531034482758621</v>
       </c>
       <c r="I26">
         <v>7</v>
@@ -2367,22 +2364,22 @@
         <v>1.6</v>
       </c>
       <c r="K26">
-        <v>-0.0740705272645336</v>
+        <v>-0.106344756340838</v>
       </c>
       <c r="L26">
-        <v>-0.117971542344804</v>
+        <v>-0.157913702685382</v>
       </c>
       <c r="M26">
-        <v>-0.0321862029962184</v>
+        <v>-0.0640003521008272</v>
       </c>
       <c r="N26">
-        <v>-4.62940795403335</v>
+        <v>-6.64654727130237</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q26">
         <v>1822322</v>
@@ -2391,19 +2388,19 @@
         <v>5519097</v>
       </c>
       <c r="S26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V26" t="s">
+        <v>62</v>
+      </c>
+      <c r="W26" t="s">
         <v>63</v>
-      </c>
-      <c r="W26" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2420,16 +2417,16 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>0.937228865953843</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.76878612716763</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2438,22 +2435,22 @@
         <v>10.76</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.0178031181482073</v>
       </c>
       <c r="L27">
-        <v>-0.0232286955561329</v>
+        <v>-0.0008684242406396</v>
       </c>
       <c r="M27">
-        <v>0.0199627760101156</v>
+        <v>0.0360048866018232</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.165456488366239</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q27">
         <v>1822322</v>
@@ -2462,19 +2459,19 @@
         <v>5519097</v>
       </c>
       <c r="S27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2491,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>0.283277042578575</v>
+        <v>0.459018364202666</v>
       </c>
       <c r="G28">
-        <v>0.202247191011236</v>
+        <v>0.191011235955056</v>
       </c>
       <c r="H28">
         <v>0.0730337078651685</v>
@@ -2524,7 +2521,7 @@
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q28">
         <v>1822322</v>
@@ -2533,19 +2530,19 @@
         <v>5519097</v>
       </c>
       <c r="S28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2565,37 +2562,37 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.0695113800801055</v>
+        <v>0.0182019381833133</v>
       </c>
       <c r="G29">
-        <v>0.0112994350282486</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="H29">
-        <v>0.548022598870056</v>
+        <v>0.5965909090909089</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>61</v>
+        <v>62.5</v>
       </c>
       <c r="K29">
-        <v>0.907453416149068</v>
+        <v>1.47007453416149</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>0.189286161217853</v>
       </c>
       <c r="M29">
-        <v>2.50858516483516</v>
+        <v>3.15730209281165</v>
       </c>
       <c r="N29">
-        <v>1.48762855106405</v>
+        <v>2.35211925465839</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q29">
         <v>1822322</v>
@@ -2604,19 +2601,19 @@
         <v>5519097</v>
       </c>
       <c r="S29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2636,7 +2633,7 @@
         <v>43</v>
       </c>
       <c r="F30">
-        <v>0.963892246197086</v>
+        <v>0.997039243391883</v>
       </c>
       <c r="G30">
         <v>0.887573964497041</v>
@@ -2666,7 +2663,7 @@
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q30">
         <v>1822322</v>
@@ -2675,19 +2672,19 @@
         <v>5519097</v>
       </c>
       <c r="S30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2704,22 +2701,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31">
-        <v>0.88948940199142</v>
+        <v>0.992692015974845</v>
       </c>
       <c r="G31">
-        <v>0.526627218934911</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="H31">
-        <v>0.0769230769230769</v>
+        <v>0.0730337078651685</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2737,7 +2734,7 @@
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q31">
         <v>1822322</v>
@@ -2746,19 +2743,19 @@
         <v>5519097</v>
       </c>
       <c r="S31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2778,37 +2775,37 @@
         <v>39</v>
       </c>
       <c r="F32">
-        <v>0.992227891394286</v>
+        <v>0.999799771414444</v>
       </c>
       <c r="G32">
-        <v>0.100591715976331</v>
+        <v>0.106741573033708</v>
       </c>
       <c r="H32">
-        <v>0.804733727810651</v>
+        <v>0.792134831460674</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.115</v>
+        <v>0.11075</v>
       </c>
       <c r="K32">
-        <v>-0.0027090797492737</v>
+        <v>-0.0038828114021069</v>
       </c>
       <c r="L32">
-        <v>-0.0052004990875754</v>
+        <v>-0.00591704596902</v>
       </c>
       <c r="M32">
-        <v>-0.000372876690208</v>
+        <v>-0.0016213786260183</v>
       </c>
       <c r="N32">
-        <v>-2.35572152110758</v>
+        <v>-3.50592451657513</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q32">
         <v>1822322</v>
@@ -2817,19 +2814,19 @@
         <v>5519097</v>
       </c>
       <c r="S32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2846,40 +2843,40 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0.9742214853308629</v>
+        <v>0.48194415834266</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.560693641618497</v>
+        <v>0.554913294797688</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.79</v>
+        <v>7.82</v>
       </c>
       <c r="K33">
-        <v>0.0117968944099379</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>0.0026134027601189</v>
+        <v>-0.0125926848556808</v>
       </c>
       <c r="M33">
-        <v>0.0215269112275385</v>
+        <v>0.009970427661510401</v>
       </c>
       <c r="N33">
-        <v>0.151436385236687</v>
+        <v>0</v>
       </c>
       <c r="O33" t="s">
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q33">
         <v>1822322</v>
@@ -2888,16 +2885,16 @@
         <v>5519097</v>
       </c>
       <c r="S33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2917,37 +2914,37 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.999874838618376</v>
+        <v>0.999911271312708</v>
       </c>
       <c r="G34">
         <v>0.0112359550561798</v>
       </c>
       <c r="H34">
-        <v>0.752808988764045</v>
+        <v>0.730337078651685</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.1255</v>
+        <v>0.1179</v>
       </c>
       <c r="K34">
-        <v>-0.0043093767322435</v>
+        <v>-0.0042545771268108</v>
       </c>
       <c r="L34">
-        <v>-0.0073525630786667</v>
+        <v>-0.0068034581045098</v>
       </c>
       <c r="M34">
-        <v>-0.0022322382510987</v>
+        <v>-0.0022817216866524</v>
       </c>
       <c r="N34">
-        <v>-3.43376632051277</v>
+        <v>-3.60863199899141</v>
       </c>
       <c r="O34" t="s">
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q34">
         <v>1822322</v>
@@ -2956,19 +2953,19 @@
         <v>5519097</v>
       </c>
       <c r="S34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2988,37 +2985,37 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.99714252662021</v>
+        <v>0.979910292947402</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.438202247191011</v>
+        <v>0.415730337078652</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="K35">
-        <v>-0.0050171703296703</v>
+        <v>-0.0035709164476827</v>
       </c>
       <c r="L35">
-        <v>-0.008553864168618201</v>
+        <v>-0.0067555239274523</v>
       </c>
       <c r="M35">
-        <v>-0.0019950549298035</v>
+        <v>-0.0002791181234206</v>
       </c>
       <c r="N35">
-        <v>-1.85821123321123</v>
+        <v>-1.3734294029549</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Q35">
         <v>1822322</v>
@@ -3027,19 +3024,19 @@
         <v>5519097</v>
       </c>
       <c r="S35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3059,13 +3056,13 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.191891069222742</v>
+        <v>0.0524919762199633</v>
       </c>
       <c r="G36">
         <v>0.0056179775280898</v>
       </c>
       <c r="H36">
-        <v>0.252808988764045</v>
+        <v>0.241573033707865</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -3074,16 +3071,16 @@
         <v>0.016</v>
       </c>
       <c r="K36">
-        <v>6.88371654730494E-05</v>
+        <v>0.0001694109461966</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.0002775492615921</v>
+        <v>0.0003524809945522</v>
       </c>
       <c r="N36">
-        <v>0.430232284206559</v>
+        <v>1.05881841372913</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
@@ -3098,19 +3095,19 @@
         <v>5519097</v>
       </c>
       <c r="S36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3130,37 +3127,37 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.0713694124298806</v>
+        <v>0.027699870389961</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.882022471910112</v>
+        <v>0.8764044943820229</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="K37">
-        <v>0.031519739655334</v>
+        <v>0.0382275623598516</v>
       </c>
       <c r="L37">
-        <v>-0.0045818212274838</v>
+        <v>0.0051783742054628</v>
       </c>
       <c r="M37">
-        <v>0.0737498813117092</v>
+        <v>0.07832353091925449</v>
       </c>
       <c r="N37">
-        <v>1.74142208040519</v>
+        <v>2.13561800893026</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q37">
         <v>1822322</v>
@@ -3169,19 +3166,19 @@
         <v>5519097</v>
       </c>
       <c r="S37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3189,49 +3186,49 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.5</v>
+        <v>0.0234158229318059</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.0102564102564103</v>
       </c>
       <c r="H38">
-        <v>0.8</v>
+        <v>0.594871794871795</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0.49</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.0024779511533242</v>
+        <v>1.37312030075188</v>
       </c>
       <c r="L38">
-        <v>-0.0432474516413615</v>
+        <v>0.161923099778213</v>
       </c>
       <c r="M38">
-        <v>0.0255574959977384</v>
+        <v>2.87332934013023</v>
       </c>
       <c r="N38">
-        <v>0.505704317004957</v>
+        <v>2.17955603293949</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q38">
         <v>1822322</v>
@@ -3240,16 +3237,19 @@
         <v>5519097</v>
       </c>
       <c r="S38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V38" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="W38" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3257,49 +3257,49 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.59675202974633</v>
+        <v>0.0043839208294058</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0.847715736040609</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>120</v>
+        <v>1.73</v>
       </c>
       <c r="K39">
-        <v>0.576821083505863</v>
+        <v>0.0377158045416776</v>
       </c>
       <c r="L39">
-        <v>-3.10808716432095</v>
+        <v>0.0159576979028702</v>
       </c>
       <c r="M39">
-        <v>2.62312396083784</v>
+        <v>0.0673510470393589</v>
       </c>
       <c r="N39">
-        <v>0.480684236254886</v>
+        <v>2.18010430876749</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q39">
         <v>1822322</v>
@@ -3308,16 +3308,19 @@
         <v>5519097</v>
       </c>
       <c r="S39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V39" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="W39" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3325,7 +3328,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -3337,37 +3340,37 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>0.40324797025367</v>
+        <v>0.5</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>6.61</v>
+        <v>0.48</v>
       </c>
       <c r="K40">
-        <v>-0.114253125137914</v>
+        <v>0.0024779511533242</v>
       </c>
       <c r="L40">
-        <v>-0.541721383113016</v>
+        <v>-0.0256940893606192</v>
       </c>
       <c r="M40">
-        <v>0.14035286451414</v>
+        <v>0.0255574959977384</v>
       </c>
       <c r="N40">
-        <v>-1.72848903385649</v>
+        <v>0.516239823609227</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q40">
         <v>1822322</v>
@@ -3376,16 +3379,16 @@
         <v>5519097</v>
       </c>
       <c r="S40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3393,10 +3396,10 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -3405,37 +3408,37 @@
         <v>39</v>
       </c>
       <c r="F41">
-        <v>0.20948086257967</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.5385</v>
+        <v>120</v>
       </c>
       <c r="K41">
-        <v>-0.0050379310344827</v>
+        <v>2.33821706573081</v>
       </c>
       <c r="L41">
-        <v>-0.0287861147388061</v>
+        <v>0.229841052425249</v>
       </c>
       <c r="M41">
-        <v>0.0057364197750866</v>
+        <v>2.64766972518883</v>
       </c>
       <c r="N41">
-        <v>-0.935548938622611</v>
+        <v>1.94851422144234</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q41">
         <v>1822322</v>
@@ -3444,16 +3447,16 @@
         <v>5519097</v>
       </c>
       <c r="S41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3461,10 +3464,10 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -3473,7 +3476,7 @@
         <v>39</v>
       </c>
       <c r="F42">
-        <v>0.8144533152386511</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3485,25 +3488,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>119.5</v>
+        <v>6.266</v>
       </c>
       <c r="K42">
-        <v>0.716526251526251</v>
+        <v>-0.306390612655319</v>
       </c>
       <c r="L42">
-        <v>-0.60582986666151</v>
+        <v>-1.53125407434467</v>
       </c>
       <c r="M42">
-        <v>1.56718746153506</v>
+        <v>0.14035286451414</v>
       </c>
       <c r="N42">
-        <v>0.599603557762553</v>
+        <v>-4.88973208833895</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q42">
         <v>1822322</v>
@@ -3512,16 +3515,16 @@
         <v>5519097</v>
       </c>
       <c r="S42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3529,7 +3532,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -3541,37 +3544,37 @@
         <v>39</v>
       </c>
       <c r="F43">
-        <v>0.8584345646688269</v>
+        <v>0.0439807371540401</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>6.438</v>
+        <v>0.5225</v>
       </c>
       <c r="K43">
-        <v>0.09989743589743599</v>
+        <v>-0.0138975080385852</v>
       </c>
       <c r="L43">
-        <v>-0.128810009415435</v>
+        <v>-0.031402636462683</v>
       </c>
       <c r="M43">
-        <v>0.302070832453435</v>
+        <v>-0.0007224430457789</v>
       </c>
       <c r="N43">
-        <v>1.551684310305</v>
+        <v>-2.6598101509254</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q43">
         <v>1822322</v>
@@ -3580,16 +3583,16 @@
         <v>5519097</v>
       </c>
       <c r="S43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3597,10 +3600,10 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -3609,37 +3612,37 @@
         <v>39</v>
       </c>
       <c r="F44">
-        <v>0.055918957995149</v>
+        <v>0.762862824616335</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.928571428571429</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.548</v>
+        <v>120.5</v>
       </c>
       <c r="K44">
-        <v>-0.0071477495107632</v>
+        <v>0.602722772277228</v>
       </c>
       <c r="L44">
-        <v>-0.0184973396407187</v>
+        <v>-0.60582986666151</v>
       </c>
       <c r="M44">
-        <v>-7.27634386379218E-05</v>
+        <v>1.42340169934024</v>
       </c>
       <c r="N44">
-        <v>-1.30433385232905</v>
+        <v>0.50018487325911</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q44">
         <v>1822322</v>
@@ -3648,16 +3651,16 @@
         <v>5519097</v>
       </c>
       <c r="S44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3665,10 +3668,10 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -3677,37 +3680,37 @@
         <v>39</v>
       </c>
       <c r="F45">
-        <v>0.973635185617412</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>119</v>
+        <v>6.438</v>
       </c>
       <c r="K45">
-        <v>0.66997859981657</v>
+        <v>-0.0181345568077978</v>
       </c>
       <c r="L45">
-        <v>0.142948622297927</v>
+        <v>-0.302160158842261</v>
       </c>
       <c r="M45">
-        <v>1.04658306313968</v>
+        <v>0.19563747871614</v>
       </c>
       <c r="N45">
-        <v>0.563007226736613</v>
+        <v>-0.281679975268682</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q45">
         <v>1822322</v>
@@ -3716,16 +3719,16 @@
         <v>5519097</v>
       </c>
       <c r="S45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3733,7 +3736,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C46">
         <v>15</v>
@@ -3745,55 +3748,191 @@
         <v>39</v>
       </c>
       <c r="F46">
-        <v>0.837788154739211</v>
+        <v>0.0165627624156039</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.547</v>
+      </c>
+      <c r="K46">
+        <v>-0.0075815018315018</v>
+      </c>
+      <c r="L46">
+        <v>-0.0178000614688011</v>
+      </c>
+      <c r="M46">
+        <v>-0.0026561904874014</v>
+      </c>
+      <c r="N46">
+        <v>-1.38601496005518</v>
+      </c>
+      <c r="O46" t="s">
+        <v>44</v>
+      </c>
+      <c r="P46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q46">
+        <v>1822322</v>
+      </c>
+      <c r="R46">
+        <v>5519097</v>
+      </c>
+      <c r="S46" t="s">
+        <v>59</v>
+      </c>
+      <c r="T46" t="s">
+        <v>60</v>
+      </c>
+      <c r="U46" t="s">
+        <v>61</v>
+      </c>
+      <c r="V46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47">
+        <v>0.96695322228595</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.8</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>119</v>
+      </c>
+      <c r="K47">
+        <v>0.527755296610169</v>
+      </c>
+      <c r="L47">
+        <v>0.0934621309966035</v>
+      </c>
+      <c r="M47">
+        <v>0.978524428023708</v>
+      </c>
+      <c r="N47">
+        <v>0.443491845890898</v>
+      </c>
+      <c r="O47" t="s">
+        <v>44</v>
+      </c>
+      <c r="P47" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47">
+        <v>1822322</v>
+      </c>
+      <c r="R47">
+        <v>5519097</v>
+      </c>
+      <c r="S47" t="s">
+        <v>59</v>
+      </c>
+      <c r="T47" t="s">
+        <v>60</v>
+      </c>
+      <c r="U47" t="s">
+        <v>61</v>
+      </c>
+      <c r="V47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48">
+        <v>0.616737350238214</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>6.423</v>
-      </c>
-      <c r="K46">
-        <v>0.0846956521739131</v>
-      </c>
-      <c r="L46">
-        <v>-0.0562847978715481</v>
-      </c>
-      <c r="M46">
-        <v>0.240367501254906</v>
-      </c>
-      <c r="N46">
-        <v>1.31863073600986</v>
-      </c>
-      <c r="O46" t="s">
-        <v>44</v>
-      </c>
-      <c r="P46" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q46">
-        <v>1822322</v>
-      </c>
-      <c r="R46">
-        <v>5519097</v>
-      </c>
-      <c r="S46" t="s">
-        <v>60</v>
-      </c>
-      <c r="T46" t="s">
-        <v>61</v>
-      </c>
-      <c r="U46" t="s">
-        <v>62</v>
-      </c>
-      <c r="V46" t="s">
-        <v>63</v>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>6.266</v>
+      </c>
+      <c r="K48">
+        <v>0.0145228628230617</v>
+      </c>
+      <c r="L48">
+        <v>-0.111435463175249</v>
+      </c>
+      <c r="M48">
+        <v>0.222784032050852</v>
+      </c>
+      <c r="N48">
+        <v>0.231772467651799</v>
+      </c>
+      <c r="O48" t="s">
+        <v>44</v>
+      </c>
+      <c r="P48" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q48">
+        <v>1822322</v>
+      </c>
+      <c r="R48">
+        <v>5519097</v>
+      </c>
+      <c r="S48" t="s">
+        <v>59</v>
+      </c>
+      <c r="T48" t="s">
+        <v>60</v>
+      </c>
+      <c r="U48" t="s">
+        <v>61</v>
+      </c>
+      <c r="V48" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
